--- a/Ganadería/17.13.xlsx
+++ b/Ganadería/17.13.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D945EF-B34F-46CA-9D9C-7F4478435447}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5E975-1FFA-48A6-96CD-536898381BDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="3465" windowWidth="14400" windowHeight="495" xr2:uid="{C5E6B65A-F62C-49CE-A1DF-DF3078222ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5E6B65A-F62C-49CE-A1DF-DF3078222ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTAL!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTAL!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="71">
   <si>
     <t>Plantas lecheras</t>
   </si>
@@ -252,24 +252,6 @@
   <si>
     <t>Ternero</t>
   </si>
-  <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Columna2</t>
-  </si>
-  <si>
-    <t>Columna3</t>
-  </si>
-  <si>
-    <t>Columna4</t>
-  </si>
-  <si>
-    <t>Columna5</t>
-  </si>
-  <si>
-    <t>Columna6</t>
-  </si>
 </sst>
 </file>
 
@@ -324,9 +306,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40E164C5-2CAD-43F0-815E-7C616D7FF5B6}" name="Utilizacion_leche" displayName="Utilizacion_leche" ref="A1:Q288" totalsRowShown="0">
-  <autoFilter ref="A1:Q288" xr:uid="{D91C6F9C-D50D-4F52-894B-F59D2F26A9DB}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40E164C5-2CAD-43F0-815E-7C616D7FF5B6}" name="Utilizacion_leche" displayName="Utilizacion_leche" ref="A1:K288" totalsRowShown="0">
+  <autoFilter ref="A1:K288" xr:uid="{D91C6F9C-D50D-4F52-894B-F59D2F26A9DB}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{304AA6C4-30AF-4B41-86E8-9ECEB4381139}" name="Cod_Region"/>
     <tableColumn id="2" xr3:uid="{4FCA4561-7464-45AB-AE53-9ACA89690CBA}" name="Región"/>
     <tableColumn id="3" xr3:uid="{7C781B1F-396E-426A-8352-2B6F0765DA59}" name="Cod_Prov"/>
@@ -338,12 +320,6 @@
     <tableColumn id="9" xr3:uid="{DBCE4BF4-7983-4198-8916-8259B9726E76}" name="Año Encuesta"/>
     <tableColumn id="10" xr3:uid="{48ADE6DE-C094-475E-88CC-79399FEED5E9}" name="Destino de producción"/>
     <tableColumn id="11" xr3:uid="{B42885A2-2FF8-44AC-9070-D544AB6842F5}" name="% de uso "/>
-    <tableColumn id="12" xr3:uid="{15CAC09C-9154-4C5B-97DC-096F8C96168C}" name="Columna1"/>
-    <tableColumn id="13" xr3:uid="{65CB6C41-B24C-4418-A190-AA9FC4E9BC0D}" name="Columna2"/>
-    <tableColumn id="14" xr3:uid="{EE58C5C6-135E-4B18-8180-5552993753D0}" name="Columna3"/>
-    <tableColumn id="15" xr3:uid="{CD5A26F8-4B61-4963-9AD8-3B241FEC1F6B}" name="Columna4"/>
-    <tableColumn id="16" xr3:uid="{EB10ED8E-F4FD-436B-8D0F-C65BA734EC2D}" name="Columna5"/>
-    <tableColumn id="17" xr3:uid="{A60C6CE8-8B70-4BC6-8631-661FF420BD73}" name="Columna6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -646,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDA08DB-907E-443A-BFA4-6D8726EDD270}">
-  <dimension ref="A1:Q288"/>
+  <dimension ref="A1:K288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +636,9 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -697,26 +672,8 @@
       <c r="K1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -751,7 +708,7 @@
         <v>89.268509840511641</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -786,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -821,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -856,7 +813,7 @@
         <v>94.727238204351721</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -891,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -926,7 +883,7 @@
         <v>1.7148153869921257</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -961,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -996,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1031,7 +988,7 @@
         <v>81.391304347826093</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1066,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1101,7 +1058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1136,7 +1093,7 @@
         <v>59.748470319875288</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1171,7 +1128,7 @@
         <v>59.030198136064804</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1206,7 +1163,7 @@
         <v>82.007565185112099</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
